--- a/xlsx/本田NSX_intext.xlsx
+++ b/xlsx/本田NSX_intext.xlsx
@@ -29,7 +29,7 @@
     <t>本田</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_本田NSX</t>
+    <t>政策_政策_混合动力车辆_本田NSX</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E9%B9%BF%E5%B8%82</t>
   </si>
   <si>
-    <t>鈴鹿市</t>
+    <t>铃鹿市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>中置後驅</t>
+    <t>中置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Supra</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94RX-7</t>
   </si>
   <si>
-    <t>馬自達RX-7</t>
+    <t>马自达RX-7</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Skyline</t>
   </si>
   <si>
-    <t>日產Skyline</t>
+    <t>日产Skyline</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>超級跑車</t>
+    <t>超级跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%81</t>
   </si>
   <si>
-    <t>鋁</t>
+    <t>铝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B1%B1%E6%B8%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>奧山清行</t>
+    <t>奥山清行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-16</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E9%8E%96%E6%AD%BB%E7%85%9E%E8%BB%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>防鎖死煞車系統</t>
+    <t>防锁死煞车系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EPS</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B3%B6%E6%82%9F</t>
   </si>
   <si>
-    <t>中島悟</t>
+    <t>中岛悟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%83%E9%B9%BF%E8%B5%9B%E9%81%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E9%A0%93%C2%B7%E6%B4%97%E6%8B%BF</t>
   </si>
   <si>
-    <t>艾爾頓·洗拿</t>
+    <t>艾尔顿·洗拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>東京車展</t>
+    <t>东京车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99A%E8%87%82%E6%87%B8%E5%90%8A</t>
   </si>
   <si>
-    <t>雙A臂懸吊</t>
+    <t>双A臂悬吊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8D%9B%E9%80%A0</t>
   </si>
   <si>
-    <t>鍛造</t>
+    <t>锻造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B2%E8%BD%B4</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%99%E8%83%8E</t>
   </si>
   <si>
-    <t>備胎</t>
+    <t>备胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%B0%83</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%80%A7</t>
   </si>
   <si>
-    <t>剛性</t>
+    <t>刚性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B5%E5%BC%95%E5%8A%9B</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%96%80</t>
   </si>
   <si>
-    <t>油門</t>
+    <t>油门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%8D%9A%E6%A0%BC%E6%9E%97%E8%B5%9B%E9%81%93</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93%E5%99%A8</t>
   </si>
   <si>
-    <t>渦輪增壓器</t>
+    <t>涡轮增压器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
 </sst>
 </file>
